--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F82572-41DB-4E10-86D8-5D0EC1CD394C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA22CA7-4D14-44C5-A2C1-4751446A3394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14400" yWindow="5460" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>城市5</t>
+  </si>
+  <si>
+    <t>所属国家编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountryId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -465,9 +477,10 @@
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +499,11 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -506,8 +522,11 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -526,8 +545,11 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -546,8 +568,11 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -566,8 +591,11 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -586,8 +614,11 @@
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -606,8 +637,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -624,6 +658,9 @@
         <v>10010</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA22CA7-4D14-44C5-A2C1-4751446A3394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470C809-F412-4F6B-A57D-D7BF036B92CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="5460" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>CountryId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属家族编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamilyId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -478,9 +490,10 @@
     <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +515,11 @@
       <c r="G1" t="s">
         <v>27</v>
       </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -525,8 +541,11 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -548,8 +567,11 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -571,100 +593,118 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>100003</v>
+      </c>
+      <c r="E5">
+        <v>4000</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>1234556</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>6000</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>2</v>
       </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>60004</v>
+      </c>
+      <c r="E7">
+        <v>10010</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>80000</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>30000</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>100003</v>
-      </c>
-      <c r="E7">
-        <v>4000</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>60004</v>
-      </c>
-      <c r="E8">
-        <v>10010</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
+      <c r="H8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G8">
+    <sortCondition ref="G4:G8"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470C809-F412-4F6B-A57D-D7BF036B92CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE00303D-807F-487B-BBCD-2213346201A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InitPopulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>城市1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,6 +140,20 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认男性人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认女性人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitMalePopulation</t>
+  </si>
+  <si>
+    <t>InitFemalePopulation</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -487,13 +493,14 @@
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,19 +514,22 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -530,22 +540,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -556,27 +569,30 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -588,21 +604,24 @@
         <v>10000</v>
       </c>
       <c r="F4">
+        <v>10000</v>
+      </c>
+      <c r="G4">
         <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -614,21 +633,24 @@
         <v>4000</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -640,7 +662,7 @@
         <v>6000</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -648,13 +670,16 @@
       <c r="H6">
         <v>2</v>
       </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -666,21 +691,24 @@
         <v>10010</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>10010</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -692,7 +720,7 @@
         <v>30000</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>30000</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -700,10 +728,13 @@
       <c r="H8">
         <v>3</v>
       </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G8">
-    <sortCondition ref="G4:G8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H8">
+    <sortCondition ref="H4:H8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE00303D-807F-487B-BBCD-2213346201A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49470A47-919A-4443-A2AC-A7104963E891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,13 @@
   </si>
   <si>
     <t>InitFemalePopulation</t>
+  </si>
+  <si>
+    <t>民兵数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MilitiaNum</t>
   </si>
 </sst>
 </file>
@@ -481,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -498,9 +505,10 @@
     <col min="7" max="7" width="9.5546875" customWidth="1"/>
     <col min="8" max="8" width="14.109375" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +536,11 @@
       <c r="I1" t="s">
         <v>28</v>
       </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -557,8 +568,11 @@
       <c r="I2" t="s">
         <v>29</v>
       </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -586,8 +600,11 @@
       <c r="I3" t="s">
         <v>30</v>
       </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -615,8 +632,11 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -644,8 +664,11 @@
       <c r="I5">
         <v>4</v>
       </c>
+      <c r="J5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -673,8 +696,11 @@
       <c r="I6">
         <v>2</v>
       </c>
+      <c r="J6">
+        <v>200</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -702,8 +728,11 @@
       <c r="I7">
         <v>5</v>
       </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -730,6 +759,9 @@
       </c>
       <c r="I8">
         <v>3</v>
+      </c>
+      <c r="J8">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49470A47-919A-4443-A2AC-A7104963E891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40916D4-9B00-435B-AD56-631960C5D457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,38 @@
   </si>
   <si>
     <t>MilitiaNum</t>
+  </si>
+  <si>
+    <t>农田上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农田数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮仓等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FarmlandNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FarmlandUpperLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GranaryLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食储量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrainReserves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -488,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -506,9 +538,13 @@
     <col min="8" max="8" width="14.109375" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +575,20 @@
       <c r="J1" t="s">
         <v>35</v>
       </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -571,8 +619,20 @@
       <c r="J2" t="s">
         <v>36</v>
       </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -603,8 +663,20 @@
       <c r="J3" t="s">
         <v>6</v>
       </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -635,8 +707,20 @@
       <c r="J4">
         <v>200</v>
       </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <v>400</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -667,8 +751,20 @@
       <c r="J5">
         <v>200</v>
       </c>
+      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="L5">
+        <v>400</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -699,8 +795,20 @@
       <c r="J6">
         <v>200</v>
       </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <v>400</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -731,8 +839,20 @@
       <c r="J7">
         <v>200</v>
       </c>
+      <c r="K7">
+        <v>200</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -762,6 +882,18 @@
       </c>
       <c r="J8">
         <v>200</v>
+      </c>
+      <c r="K8">
+        <v>200</v>
+      </c>
+      <c r="L8">
+        <v>400</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40916D4-9B00-435B-AD56-631960C5D457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9764DD7A-DE5E-483A-B550-14745FF01B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,23 +78,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认财富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InitWealth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InitLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -531,20 +519,19 @@
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,40 +542,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -599,40 +583,37 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -643,22 +624,22 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
@@ -672,116 +653,107 @@
       <c r="M3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E4">
         <v>10000</v>
       </c>
       <c r="F4">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="J4">
         <v>200</v>
       </c>
       <c r="K4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L4">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>100003</v>
+        <v>4000</v>
       </c>
       <c r="E5">
         <v>4000</v>
       </c>
       <c r="F5">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J5">
         <v>200</v>
       </c>
       <c r="K5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L5">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>1234556</v>
+        <v>6000</v>
       </c>
       <c r="E6">
         <v>6000</v>
       </c>
       <c r="F6">
-        <v>6000</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -790,86 +762,80 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="J6">
         <v>200</v>
       </c>
       <c r="K6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L6">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7">
-        <v>60004</v>
+        <v>10010</v>
       </c>
       <c r="E7">
         <v>10010</v>
       </c>
       <c r="F7">
-        <v>10010</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="K7">
+        <v>400</v>
+      </c>
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="J7">
-        <v>200</v>
-      </c>
-      <c r="K7">
-        <v>200</v>
-      </c>
-      <c r="L7">
-        <v>400</v>
-      </c>
       <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="E8">
         <v>30000</v>
       </c>
       <c r="F8">
-        <v>30000</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -878,27 +844,24 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="J8">
         <v>200</v>
       </c>
       <c r="K8">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L8">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H8">
-    <sortCondition ref="H4:H8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G8">
+    <sortCondition ref="G4:G8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9764DD7A-DE5E-483A-B550-14745FF01B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2470D35E-6CA5-43B9-AA93-FFFB3B60F9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2470D35E-6CA5-43B9-AA93-FFFB3B60F9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC74854-CFF3-44C2-B92C-DBCACD133C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -724,10 +724,10 @@
         <v>200</v>
       </c>
       <c r="J5">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K5">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -806,10 +806,10 @@
         <v>200</v>
       </c>
       <c r="J7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K7">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -847,7 +847,7 @@
         <v>200</v>
       </c>
       <c r="J8">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K8">
         <v>400</v>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/TownInformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC74854-CFF3-44C2-B92C-DBCACD133C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F11E60-D678-4A56-BAD2-B801EEA89481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,16 +49,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>TownPos</t>
   </si>
   <si>
@@ -88,22 +77,6 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市2</t>
-  </si>
-  <si>
-    <t>城市3</t>
-  </si>
-  <si>
-    <t>城市4</t>
-  </si>
-  <si>
-    <t>城市5</t>
   </si>
   <si>
     <t>所属国家编号</t>
@@ -508,30 +481,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,218 +511,203 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
       </c>
       <c r="D4">
         <v>10000</v>
       </c>
       <c r="E4">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I4">
         <v>200</v>
       </c>
       <c r="J4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K4">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>4000</v>
       </c>
       <c r="D5">
         <v>4000</v>
       </c>
       <c r="E5">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="I5">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="J5">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="K5">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>6000</v>
       </c>
       <c r="D6">
         <v>6000</v>
       </c>
       <c r="E6">
-        <v>6000</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -759,80 +716,74 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="I6">
         <v>200</v>
       </c>
       <c r="J6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K6">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10010</v>
       </c>
       <c r="D7">
         <v>10010</v>
       </c>
       <c r="E7">
-        <v>10010</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="I7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K7">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>30000</v>
       </c>
       <c r="D8">
         <v>30000</v>
       </c>
       <c r="E8">
-        <v>30000</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -841,27 +792,24 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I8">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="J8">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K8">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
         <v>7000</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G8">
-    <sortCondition ref="G4:G8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F8">
+    <sortCondition ref="F4:F8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
